--- a/Training/LSTM_LTC_result1.xlsx
+++ b/Training/LSTM_LTC_result1.xlsx
@@ -437,13 +437,13 @@
         <v>50</v>
       </c>
       <c r="E1" t="n">
-        <v>0.7024824178380331</v>
+        <v>0.8053825539634792</v>
       </c>
       <c r="F1" t="n">
-        <v>0.4996880724757587</v>
+        <v>0.6099851154451383</v>
       </c>
       <c r="G1" t="n">
-        <v>0.838748231443835</v>
+        <v>1.040958978365047</v>
       </c>
     </row>
     <row r="2">
@@ -462,13 +462,13 @@
         <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6671911324121621</v>
+        <v>0.8591856367116681</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4578668353312521</v>
+        <v>0.6628585822723563</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7582898585303243</v>
+        <v>1.128573773922885</v>
       </c>
     </row>
     <row r="3">
@@ -487,13 +487,13 @@
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7111154453228203</v>
+        <v>0.7851112553723242</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5157898802010625</v>
+        <v>0.5865605483921263</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8686668530634317</v>
+        <v>0.9845651104156101</v>
       </c>
     </row>
     <row r="4">
@@ -512,13 +512,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6438079705965021</v>
+        <v>0.7011461783263191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4473348495673942</v>
+        <v>0.5131729317076114</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7519421269176276</v>
+        <v>0.8709163371672358</v>
       </c>
     </row>
     <row r="5">
@@ -537,13 +537,13 @@
         <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6128656217091811</v>
+        <v>0.6249311665471707</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4114410529672587</v>
+        <v>0.4272219809537628</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6905655583191797</v>
+        <v>0.7142047589714932</v>
       </c>
     </row>
     <row r="6">
@@ -562,13 +562,13 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6541371815309682</v>
+        <v>0.6756628501580962</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4690366061720902</v>
+        <v>0.4943538607712222</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8003684893436167</v>
+        <v>0.8515939717431537</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5980311971931939</v>
+        <v>0.6177260651763893</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3953997011798488</v>
+        <v>0.416048929568231</v>
       </c>
       <c r="G7" t="n">
-        <v>0.661309486619724</v>
+        <v>0.6933097177704658</v>
       </c>
     </row>
     <row r="8">
@@ -612,13 +612,13 @@
         <v>60</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5830343562631993</v>
+        <v>0.5846437505644038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.379901228759062</v>
+        <v>0.3820878142143528</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6394318892491364</v>
+        <v>0.6428556579319512</v>
       </c>
     </row>
     <row r="9">
@@ -637,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6245649436738001</v>
+        <v>0.5827693752643581</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4299622073654477</v>
+        <v>0.3837079683672173</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7215437152300949</v>
+        <v>0.6482647566284434</v>
       </c>
     </row>
   </sheetData>
